--- a/Src/Data/Tables/NpcDefine.xlsx
+++ b/Src/Data/Tables/NpcDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="19271" windowHeight="5375" tabRatio="599"/>
+    <workbookView windowWidth="13055" windowHeight="4416" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>描述</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>装备NPC</t>
+  </si>
+  <si>
+    <t>爱得里</t>
+  </si>
+  <si>
+    <t>坐骑NPC</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -304,11 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -321,20 +322,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -360,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,24 +537,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,31 +797,31 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -941,7 +910,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1007,6 +976,21 @@
       </fill>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1027,7 +1011,7 @@
     <tableColumn id="2" name="Description" dataDxfId="3"/>
     <tableColumn id="4" name="Type" dataDxfId="4"/>
     <tableColumn id="98" name="Function" dataDxfId="5"/>
-    <tableColumn id="6" name="Param"/>
+    <tableColumn id="6" name="Param" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1322,8 +1306,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1399,7 +1383,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1483,9 +1467,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.2" spans="6:7">
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:7">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="13.2" spans="4:7">
       <c r="D9" s="6"/>
